--- a/Mid term/Test Case/Mid term Test Case Assignment 4 Nghiem Van Long.xlsx
+++ b/Mid term/Test Case/Mid term Test Case Assignment 4 Nghiem Van Long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C8AE5-F248-475F-9EB5-965C831D50EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C1400-24CE-4D9D-ACBF-6E29BF09B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{02CC2052-6F2B-4E0E-B93A-A1851046750D}"/>
   </bookViews>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="1" shapeId="0" xr:uid="{41D9BEAD-5CAF-43A8-A662-66A9E0EB01E0}">
+    <comment ref="F88" authorId="1" shapeId="0" xr:uid="{41D9BEAD-5CAF-43A8-A662-66A9E0EB01E0}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="1" shapeId="0" xr:uid="{6547ED97-9DF5-4940-B8CD-3CBF817E4C07}">
+    <comment ref="F89" authorId="1" shapeId="0" xr:uid="{6547ED97-9DF5-4940-B8CD-3CBF817E4C07}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F89" authorId="1" shapeId="0" xr:uid="{F89317D3-5144-496C-ABE6-61C28FCE403E}">
+    <comment ref="F91" authorId="1" shapeId="0" xr:uid="{F89317D3-5144-496C-ABE6-61C28FCE403E}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F102" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
+    <comment ref="F104" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G102" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
+    <comment ref="G104" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
+    <comment ref="F132" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F132" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
+    <comment ref="F134" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
   <si>
     <t>User Story 2</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>Check when user leaves Full Name field blank</t>
-  </si>
-  <si>
     <t>Check when user inputs 2 characters</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>Check when user inputs alphabetic data</t>
   </si>
   <si>
-    <t>Check when user leaves Phone number field blank</t>
-  </si>
-  <si>
     <t>Check when user inputs 10 numbers</t>
   </si>
   <si>
@@ -382,60 +376,24 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Check when user leaves Address field blank</t>
-  </si>
-  <si>
-    <t>Check when user inputs less than 5 numbers</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
-    <t xml:space="preserve">Check when user click on the Province button, a drop-down list will appear and display 63 province  </t>
-  </si>
-  <si>
     <t>Verify that the drop-down list has a scroll bar</t>
   </si>
   <si>
-    <t>Check when user leaves Province field blank</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
-    <t xml:space="preserve">Check when user click on the District button, a drop-down list will appear and display District list   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that District field is clickable only when user had selected Province </t>
-  </si>
-  <si>
-    <t>Check when user leaves District field blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that District field 's data changes depend on the Province </t>
-  </si>
-  <si>
     <t>Verify that the data in drop-down list is sorted alphabetically</t>
   </si>
   <si>
     <t>Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">Check when user click on the Ward button, a drop-down list will appear and display Ward list   </t>
-  </si>
-  <si>
-    <t>Check that Ward field is clickable only when user had selected Province and District</t>
-  </si>
-  <si>
-    <t>Check when user leaves Ward field blank</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
-    <t>Check when user inputs special characters/Coding language ( JavaS, SQl,…)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check that the systerm will automatically trims the space before and after the Full Name  </t>
   </si>
   <si>
@@ -454,21 +412,6 @@
     <t>Add new address successfully as Office</t>
   </si>
   <si>
-    <t>Add new address unsuccessfully when user input invalid values in all fields</t>
-  </si>
-  <si>
-    <t>Check function when click on Cancel button with all inputted data</t>
-  </si>
-  <si>
-    <t>Check function when click on Cancel button without all data</t>
-  </si>
-  <si>
-    <t>Add new address that has existed before</t>
-  </si>
-  <si>
-    <t>Add multiple address for one person ( same Phone Number, Full Name )</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -490,15 +433,9 @@
     <t>Check than user can copy/paste data in the Phone number field</t>
   </si>
   <si>
-    <t>Check that the systerm will automatically trims the space before and after phone numbers</t>
-  </si>
-  <si>
     <t>Check Ward's initial data and placeholder</t>
   </si>
   <si>
-    <t>Check than user can't copy/paste data in the Ward field</t>
-  </si>
-  <si>
     <t>Check when user inputs 2 to 50 characters</t>
   </si>
   <si>
@@ -514,76 +451,12 @@
     <t>Check that user can use "X" button to clear inputted data in the Phone Number field</t>
   </si>
   <si>
-    <t>Check Province's drop-down value when select a value</t>
-  </si>
-  <si>
-    <t>Check Province's drop-down value when select second value</t>
-  </si>
-  <si>
     <t>User is on Add new address screen</t>
   </si>
   <si>
-    <t>Input !@#$%^&amp;*</t>
-  </si>
-  <si>
-    <t>Input "   Nghiem Van Long  "</t>
-  </si>
-  <si>
-    <t>Rotate the screen</t>
-  </si>
-  <si>
-    <t>Input " N "</t>
-  </si>
-  <si>
-    <t>Input " N V "</t>
-  </si>
-  <si>
-    <t>Input "Nghiem Van Long"</t>
-  </si>
-  <si>
-    <t>Input "Nghiem Van Long Nghiem Van Long Nghiem Van Long Nghiem Minh A"</t>
-  </si>
-  <si>
-    <t>Input "Nghiem Van Long Nghiem Van Long Nghiem Van Long Nghiem Minh Minh"</t>
-  </si>
-  <si>
-    <t>1. Input "Nghiem Van Long"
-2. Copy/Paste in the Full Name field</t>
-  </si>
-  <si>
-    <t>1. Input "Nghiem Van Long"
-2. Click X icon</t>
-  </si>
-  <si>
     <t>Check that user can use "X" icon to clear inputted data in the Full Name field</t>
   </si>
   <si>
-    <t>Input "   0123 324 890  "</t>
-  </si>
-  <si>
-    <t>Input "0123 324"</t>
-  </si>
-  <si>
-    <t>Input "0123 324 8901"</t>
-  </si>
-  <si>
-    <t>Input " 0123 324 890"</t>
-  </si>
-  <si>
-    <t>1. Input "0123 324 890"
-2. Copy/Paste in the Phone Number field</t>
-  </si>
-  <si>
-    <t>1. Input "0123 324 890"
-2. Click X icon</t>
-  </si>
-  <si>
-    <t>Input "99 ha"</t>
-  </si>
-  <si>
-    <t>Input "99 hat"</t>
-  </si>
-  <si>
     <t>Check when user inputs 350 characters</t>
   </si>
   <si>
@@ -593,287 +466,530 @@
     <t>Check when user inputs more than 350 characters</t>
   </si>
   <si>
-    <t>Input "99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h"</t>
-  </si>
-  <si>
-    <t>Input "99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h 2"</t>
-  </si>
-  <si>
-    <t>1. Input "99 hat"
+    <t>Check that user can use "X" icon to clear inputted data in the Address field</t>
+  </si>
+  <si>
+    <t>Check Home button's default status</t>
+  </si>
+  <si>
+    <t>Check Office button's default status</t>
+  </si>
+  <si>
+    <t>Error message: Please select your Ward (if this field is empty)</t>
+  </si>
+  <si>
+    <t>1. Leave the Full Name field blank
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Observer Full Name field</t>
+  </si>
+  <si>
+    <t>1. Full Name field is displayed placeholder: "First Last"</t>
+  </si>
+  <si>
+    <t>1. Input "N" in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "Ng" in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "Ngh" in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input 50 characters in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input more than 50 characters in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "spaceNghspace" in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "Ngh@$" in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Input "Ngh" in the Full Name field
+2. Copy/Paste the inputted data
+</t>
+  </si>
+  <si>
+    <t>1. Input "Ngh" in the Full Name field
 2. Click on X icon</t>
   </si>
   <si>
-    <t>Check that user can use "X" icon to clear inputted data in the Address field</t>
-  </si>
-  <si>
-    <t>Click on Province field</t>
+    <t>3. Save successfully and new address will be displayed on the top of the address book</t>
+  </si>
+  <si>
+    <t>Check when user inputs Coding language (HTML, JavaS, SQl,…)</t>
+  </si>
+  <si>
+    <t>1. Input HTML/Java/SQL in the Full Name field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "The name length should be 2-50 characters" under Full Name field</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "Please enter your Full name " under Full Name field</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "The Full name should contains Alphanumeric characters" under Full Name field</t>
+  </si>
+  <si>
+    <t>3. Save successfully and new address will be displayed on the top of the address book and Full name will be "Ngh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Clear data in the Full Name field </t>
+  </si>
+  <si>
+    <t>2. Full name field will display "Ngh"</t>
+  </si>
+  <si>
+    <t>Check when user inputs special characters</t>
+  </si>
+  <si>
+    <t>1. Leave the Phone Number field blank
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Observer Phone Number field</t>
+  </si>
+  <si>
+    <t>1. Input "0" in the Phone Number field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "0123456789" in the Phone Number field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input more than 10 numbers in the Phone Number field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "adc" in the Phone Number field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "#$@%" in the Phone Number field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input HTML/Java/SQL in the Phone Number field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Phone Number field is displayed placeholder: "Please enter your phone number"</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "Please enter your Phone number " under Phone Number field</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "The length of phone number should be 10 characters" under Phone Number field</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "The Phone Number should contains Numeric characters" under Phone Number field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Input "0123456789" in the Phone Number field
+2. Copy/Paste the inputted data
+</t>
+  </si>
+  <si>
+    <t>1. Input "0123456789" in the Phone Number field
+2. Click on X icon</t>
+  </si>
+  <si>
+    <t>2. Phone Number field will display "0123456789"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Clear data in the Phone Number field </t>
+  </si>
+  <si>
+    <t>Check mandatory/required for Address field</t>
+  </si>
+  <si>
+    <t>1. Observer Address field</t>
+  </si>
+  <si>
+    <t>1. Leave the Address field blank
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>Check when user inputs less than 5 characters</t>
+  </si>
+  <si>
+    <t>1. Input "A" in the Address field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "Abc12" in the Address field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input 350 character in the Address field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input more than 350 character in the Address field
+2. Input valid data in all other fields
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input "Abc12" in the Address field
+2. Copy/Paste the inputted data</t>
+  </si>
+  <si>
+    <t>1. Input "Abc12" in the Address field
+2. Click on X icon</t>
+  </si>
+  <si>
+    <t>1. Address field is displayed placeholder: "Please enter your phone number"</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "Please enter your Address " under Addressr field</t>
+  </si>
+  <si>
+    <t>3. Save fail and display Error message : "The address length should be 5 - 350 characters " under Addressr field</t>
+  </si>
+  <si>
+    <t>2.Address field will display "Abc12"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Clear data in the Address field </t>
+  </si>
+  <si>
+    <t>Check mandatory/required for Province field</t>
+  </si>
+  <si>
+    <t>1. Don’t select data from the province field
+2. Select/Input valid data in all other fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>2. User cant select data in District and Ward field( District and Ward field are disable when Province field hasn’t been selected) 
+3. 
+Error message is display under Provine Field : "Please select your Province"
+Error message is display under District Field : "Please select your District"
+Error message is display under Ward Field : "Please select your Ward"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user click on the Province button, a drop-down list will appear   </t>
+  </si>
+  <si>
+    <t>1. Observer Province field</t>
+  </si>
+  <si>
+    <t>1. Province field is displayed placeholder: "Please enter your Province"</t>
   </si>
   <si>
     <t>1. Click on Province field
-2 . Select a province</t>
+2. Observe province field</t>
   </si>
   <si>
     <t>1. Click on Province field
-2 . Select a province
-3. Change the selected province</t>
-  </si>
-  <si>
-    <t>1. Input "99 hat"
-2. Copy/Paste in the Address field</t>
-  </si>
-  <si>
-    <t>1. Copy data from Province field
-2. Paste in the Province field</t>
-  </si>
-  <si>
-    <t>Click on Disctrict field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Disctrict field after selecting Province </t>
-  </si>
-  <si>
-    <t>1. Click on Disctrict field
-2. Select a District
-3. Change the Province Field</t>
-  </si>
-  <si>
-    <t>1. Copy data from Disctrict field
-2. Paste in the District field</t>
-  </si>
-  <si>
-    <t>1. Copy data from Ward field
-2. Paste in the Ward field</t>
-  </si>
-  <si>
-    <t>Click on Ward field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that Ward field 's data changes depend on the District </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on Ward field
-2. Select a Ward
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on Ward field
-2. Select a Ward
-3 . Change the district
-</t>
-  </si>
-  <si>
-    <t>Click Save without selecting the Ward field</t>
-  </si>
-  <si>
-    <t>Click Save without selecting the District field</t>
-  </si>
-  <si>
-    <t>Click Save without selecting the Province field</t>
-  </si>
-  <si>
-    <t>Click Save without selecting the Address field</t>
-  </si>
-  <si>
-    <t>Click Save without inputting the Phone Number field</t>
-  </si>
-  <si>
-    <t>Click Save without inputting the Full Name field</t>
-  </si>
-  <si>
-    <t>Check Home button's default status</t>
-  </si>
-  <si>
-    <t>Check Office button's default status</t>
-  </si>
-  <si>
-    <t>1. Input all field
-2. Choose Home</t>
-  </si>
-  <si>
-    <t>1. Input all field
-2. Choose Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input all field with invalid data
-</t>
-  </si>
-  <si>
-    <t>1. Input all field with valid data
-2. Click Cancel</t>
-  </si>
-  <si>
-    <t>1. Leave all field blank
-2. Click Cancel</t>
-  </si>
-  <si>
-    <t>1. Input all field with valid data
-2. Add existed address
-3. Click Save</t>
-  </si>
-  <si>
-    <t>1. Input all field with existed data except address
-2. Add addresses
-3. Click Save</t>
-  </si>
-  <si>
-    <t>The Full Name field is blank when user click on the page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display error message 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display error message 3 </t>
-  </si>
-  <si>
-    <t>The field will display "Nghiem Van Long"</t>
-  </si>
-  <si>
-    <t>Check all field when rotating screen</t>
-  </si>
-  <si>
-    <t>All field will be rotated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display error message 2 </t>
-  </si>
-  <si>
-    <t>The field will display "N V"</t>
-  </si>
-  <si>
-    <t>The field will display "Nghiem Van Long Nghiem Van Long Nghiem Van Long Nghiem Minh A"</t>
-  </si>
-  <si>
-    <t>The Phone Number field is blank when user click on the page</t>
-  </si>
-  <si>
-    <t>The field will display "0123 324 890"</t>
-  </si>
-  <si>
-    <t>Display error message 1</t>
-  </si>
-  <si>
-    <t>The Address field is blank when user click on the page</t>
-  </si>
-  <si>
-    <t>Error message 1: The address length should be 5 - 350 characters. 
-Error message 2: Please enter your Address (if this field is empty)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message 1: Please enter your Full name (if this field is empty) 
-Error message 2: The name length should be 2-50 characters
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message 1: The length of phone number should be 10 characters Error message 2: Please enter your Phone number (if this field is empty) 
-</t>
-  </si>
-  <si>
-    <t>Display error message 2</t>
-  </si>
-  <si>
-    <t>The field will display "99 hat"</t>
-  </si>
-  <si>
-    <t>The field will display "99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h j k l z x c v b m n 99 hat n s q w e r t y u I o p a s d f g h"</t>
-  </si>
-  <si>
-    <t>Clear all data in the field</t>
-  </si>
-  <si>
-    <t>The Province field is blank when user click on the page</t>
-  </si>
-  <si>
-    <t>The District field is blank when user click on the page</t>
-  </si>
-  <si>
-    <t>The Ward field is blank when user click on the page</t>
-  </si>
-  <si>
-    <t>User can't copy/paste data in the Province field</t>
-  </si>
-  <si>
-    <t>The drop-down list has a scroll bar</t>
-  </si>
-  <si>
-    <t>User can't copy/paste data in the District field</t>
-  </si>
-  <si>
-    <t>User can't copy/paste data in the Ward field</t>
-  </si>
-  <si>
-    <t>Check copy/paste function in the Province field</t>
-  </si>
-  <si>
-    <t>Check can't copy/paste function in the District field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drop-down list will appear and display 63 province  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drop-down list will appear and display District list   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drop-down list will appear and display Ward list   </t>
-  </si>
-  <si>
-    <t>Ward field is clickable</t>
-  </si>
-  <si>
-    <t>District field is clickable</t>
-  </si>
-  <si>
-    <t>Error message: Please select your Province (if this field is empty).</t>
-  </si>
-  <si>
-    <t>Error message: Please select your District (if this field is empty)</t>
-  </si>
-  <si>
-    <t>Error message: Please select your Ward (if this field is empty)</t>
-  </si>
-  <si>
-    <t>A Province will be selected</t>
-  </si>
-  <si>
-    <t>A Province will be selected and changed to another one</t>
-  </si>
-  <si>
-    <t>Display Error message</t>
-  </si>
-  <si>
-    <t>Data in drop-down list is sorted alphabetically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District field 's data changes depend on the Province </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ward field 's data changes depend on the District </t>
-  </si>
-  <si>
-    <t>Home button is clickable</t>
-  </si>
-  <si>
-    <t>Office button is clickable</t>
-  </si>
-  <si>
-    <t>The Office button is clickable when user click on the page</t>
-  </si>
-  <si>
-    <t>New address will be added as Home</t>
-  </si>
-  <si>
-    <t>New address will be added as Office</t>
-  </si>
-  <si>
-    <t>Error message of each field will be displayed</t>
-  </si>
-  <si>
-    <t>Cancel and go back to previous page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New address will be added </t>
-  </si>
-  <si>
-    <t>The Home button is selected when user click on the page</t>
+2. Select Province 
+3. Observe province field</t>
+  </si>
+  <si>
+    <t>1. Click on Province field
+2. Select Province 
+3. Select another Provine 
+4. Observe Province field</t>
+  </si>
+  <si>
+    <t>2. The Province field will display the second chosen Province</t>
+  </si>
+  <si>
+    <t>2. The Province field will display the chosen Province</t>
+  </si>
+  <si>
+    <t>Check District's initial data and placeholder</t>
+  </si>
+  <si>
+    <t>1. Observer District field</t>
+  </si>
+  <si>
+    <t>1. District field is displayed placeholder: "Please enter your District"</t>
+  </si>
+  <si>
+    <t>Check mandatory/required for District field</t>
+  </si>
+  <si>
+    <t>1. Don’t select data from the District field
+2. Select/Input valid data in all other fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user click on the District button, a drop-down list will appear   </t>
+  </si>
+  <si>
+    <t>1. Click on District field
+2. Observe District field</t>
+  </si>
+  <si>
+    <t>1. Click on District field
+2. Select District 
+3. Observe District field</t>
+  </si>
+  <si>
+    <t>2. The District field will display the chosen District</t>
+  </si>
+  <si>
+    <t>2. The District field will display the second chosen District</t>
+  </si>
+  <si>
+    <t>2. User cant select data in Ward field( Ward field are disable when District field hasn’t been selected) 
+3. 
+Error message is display under District Field : "Please select your District"
+Error message is display under Ward Field : "Please select your Ward"</t>
+  </si>
+  <si>
+    <t>Check District's drop-down value when user change the Province field</t>
+  </si>
+  <si>
+    <t>Check District's drop-down value when user selects second value</t>
+  </si>
+  <si>
+    <t>Check District's drop-down value when user selects a value</t>
+  </si>
+  <si>
+    <t>Check Province's drop-down value when user selects a value</t>
+  </si>
+  <si>
+    <t>Check Province's drop-down value when user selects second value</t>
+  </si>
+  <si>
+    <t>1. Click on District field
+2. Select District 
+3. Select another District 
+4. Observe District field</t>
+  </si>
+  <si>
+    <t>1. Click on District field
+2. Select District 
+3. Select another Province 
+4. Observe District field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. The District field will display District that belongs to the chosen Province </t>
+  </si>
+  <si>
+    <t>1. Observer Ward field</t>
+  </si>
+  <si>
+    <t>1. Ward field is displayed placeholder: "Please enter your Ward"</t>
+  </si>
+  <si>
+    <t>Check mandatory/required for Ward field</t>
+  </si>
+  <si>
+    <t>1. Don’t select data from the Ward field
+2. Select/Input valid data in all other fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user click on the Ward button, a drop-down list will appear   </t>
+  </si>
+  <si>
+    <t>1. Click on Ward field
+2. Observe Ward field</t>
+  </si>
+  <si>
+    <t>Check Ward's drop-down value when user selects a value</t>
+  </si>
+  <si>
+    <t>1. Click on Ward field
+2. Select Ward 
+3. Observe Ward field</t>
+  </si>
+  <si>
+    <t>2. The Ward field will display the chosen Ward</t>
+  </si>
+  <si>
+    <t>Check Ward's drop-down value when user selects second value</t>
+  </si>
+  <si>
+    <t>1. Click on Ward field
+2. Select Ward 
+3. Select another Ward 
+4. Observe Ward field</t>
+  </si>
+  <si>
+    <t>2. The Ward field will display the second chosen Ward</t>
+  </si>
+  <si>
+    <t>4. The Ward field will display Ward depends on the chosen Province</t>
+  </si>
+  <si>
+    <t>2. User cant select data in Ward field( Ward field are disable when District field hasn’t been selected) 
+3. 
+Error message is display under Ward Field : "Please select your Ward"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. The Ward field will display Ward that belongs to the chosen District </t>
+  </si>
+  <si>
+    <t>2. The Ward field will display Wards sorted alphabetically</t>
+  </si>
+  <si>
+    <t>2. The Ward field will display Wards with a scroll bar</t>
+  </si>
+  <si>
+    <t>2. The District field will display Districts sorted alphabetically</t>
+  </si>
+  <si>
+    <t>4. The District field will display Districts depends on the chosen Province</t>
+  </si>
+  <si>
+    <t>2. The District field will display Districts with a scroll bar</t>
+  </si>
+  <si>
+    <t>2. The Province field will display 63 Provinces with a scroll bar</t>
+  </si>
+  <si>
+    <t>2. The Province field will display 63 Provinces sorted aphabetically</t>
+  </si>
+  <si>
+    <t>2. The Province field will display 63 Provinces</t>
+  </si>
+  <si>
+    <t>Check Ward's drop-down value when user change the District field</t>
+  </si>
+  <si>
+    <t>1. Click on Ward field
+2. Select Ward 
+3. Select another District 
+4. Observe Ward field</t>
+  </si>
+  <si>
+    <t>1. Select/Input valid data in all other fields
+2. Click on Home button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Select/Input valid data in all other fields
+2. Click on Office button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Observer Home button</t>
+  </si>
+  <si>
+    <t>1. Observer Office button</t>
+  </si>
+  <si>
+    <t>2. Home button is clickable</t>
+  </si>
+  <si>
+    <t>2. Office button is clickable</t>
+  </si>
+  <si>
+    <t>2. Home button is Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user inputted valid data in all field but Full Name and Phone Number have existed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user inputted valid data in all field but Address has existed  </t>
+  </si>
+  <si>
+    <t>Check when user inputted valid data in all field but choose different label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user inputted invalid data in all field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user inputted blank data in all field </t>
+  </si>
+  <si>
+    <t>Check when user click on Cancel button will all field inputted</t>
+  </si>
+  <si>
+    <t>Check when user click on Cancel button will all field blank</t>
+  </si>
+  <si>
+    <t>1. Input valid data in all field
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input valid data in all field
+2. Click on Office button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input valid data in all field but with existed Full Name and Phone Number
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input valid data in all field but with existed Address
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input same valid data in all field but with different label
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input invalid data in all field
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input nothing in all field
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Input valid data in all field
+2. Click on Cancel button</t>
+  </si>
+  <si>
+    <t>1. Input nothing in all field
+2. Click on Cancel button</t>
+  </si>
+  <si>
+    <t>2. Save successfully and new Address will be displayed on the top page with Home label</t>
+  </si>
+  <si>
+    <t>2. Save successfully and new Address will be displayed on the top page with Office label</t>
+  </si>
+  <si>
+    <t>2. Save successfully and new Address will be displayed on the top page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Save fail and error messages will be displayed under all field </t>
+  </si>
+  <si>
+    <t>2. Back to Address Book page</t>
+  </si>
+  <si>
+    <t>2. Back to Address Book page and inputted data will not be saved</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1367,7 +1483,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1380,6 +1495,24 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1446,23 +1579,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1779,16 +1900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8483E831-5D5C-4FE4-892A-2F8425F39E30}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
@@ -1799,11 +1920,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1814,9 +1935,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1827,11 +1948,11 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1842,11 +1963,11 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1857,9 +1978,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1915,15 +2036,15 @@
         <v>9</v>
       </c>
       <c r="B8" s="10">
-        <f>COUNTIF($F$20:$F$49698,"*Passed")</f>
+        <f>COUNTIF($F$20:$F$49700,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <f>COUNTIF($G$20:$G$49698,"*Passed")</f>
+        <f>COUNTIF($G$20:$G$49700,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <f>COUNTIF($H$20:$H$49698,"*Passed")</f>
+        <f>COUNTIF($H$20:$H$49700,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
@@ -1937,15 +2058,15 @@
         <v>10</v>
       </c>
       <c r="B9" s="10">
-        <f>COUNTIF($F$20:$F$49418,"*Failed*")</f>
+        <f>COUNTIF($F$20:$F$49420,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C9" s="10">
-        <f>COUNTIF($G$20:$G$49418,"*Failed*")</f>
+        <f>COUNTIF($G$20:$G$49420,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <f>COUNTIF($H$20:$H$49418,"*Failed*")</f>
+        <f>COUNTIF($H$20:$H$49420,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
@@ -1959,15 +2080,15 @@
         <v>11</v>
       </c>
       <c r="B10" s="10">
-        <f>COUNTIF($F$20:$F$49418,"*Not Run*")</f>
+        <f>COUNTIF($F$20:$F$49420,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <f>COUNTIF($G$20:$G$49418,"*Not Run*")</f>
+        <f>COUNTIF($G$20:$G$49420,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D10" s="10">
-        <f>COUNTIF($H$20:$H$49418,"*Not Run*")</f>
+        <f>COUNTIF($H$20:$H$49420,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E10" s="11"/>
@@ -1981,15 +2102,15 @@
         <v>12</v>
       </c>
       <c r="B11" s="10">
-        <f>COUNTIF($F$20:$F$49418,"*NA*")</f>
+        <f>COUNTIF($F$20:$F$49420,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C11" s="10">
-        <f>COUNTIF($G$20:$G$49418,"*NA*")</f>
+        <f>COUNTIF($G$20:$G$49420,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f>COUNTIF($H$20:$H$49418,"*NA*")</f>
+        <f>COUNTIF($H$20:$H$49420,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
@@ -2003,15 +2124,15 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <f>COUNTIF($F$20:$F$49418,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$20:$F$49420,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <f>COUNTIF($G$20:$G$49418,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$20:$G$49420,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="10">
-        <f>COUNTIF($H$20:$H$49418,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$20:$H$49420,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
@@ -2026,11 +2147,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="25.5">
@@ -2093,61 +2214,59 @@
         <v>1</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="26.25" customHeight="1">
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" ht="39" customHeight="1">
       <c r="A18" s="31">
         <v>2</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>77</v>
+      <c r="B18" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="72"/>
-    </row>
-    <row r="19" spans="1:9" ht="51.75" customHeight="1">
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" spans="1:9" ht="39" customHeight="1">
       <c r="A19" s="27">
         <v>3</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>145</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="73"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="78"/>
+    </row>
+    <row r="20" spans="1:9" ht="38.25">
       <c r="A20" s="27">
         <v>4</v>
       </c>
@@ -2155,10 +2274,10 @@
         <v>25</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="27"/>
@@ -2166,7 +2285,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5">
+    <row r="21" spans="1:9" ht="38.25">
       <c r="A21" s="31">
         <v>5</v>
       </c>
@@ -2174,10 +2293,10 @@
         <v>55</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="27"/>
@@ -2185,7 +2304,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="38.25">
       <c r="A22" s="27">
         <v>6</v>
       </c>
@@ -2193,10 +2312,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="27"/>
@@ -2204,18 +2323,18 @@
       <c r="H22" s="27"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="51">
       <c r="A23" s="27">
         <v>7</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="27"/>
@@ -2223,18 +2342,18 @@
       <c r="H23" s="27"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="38.25">
       <c r="A24" s="31">
         <v>8</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>76</v>
+      <c r="B24" s="98" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
@@ -2247,13 +2366,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="27"/>
@@ -2261,18 +2380,18 @@
       <c r="H25" s="27"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5">
+    <row r="26" spans="1:9" ht="38.25">
       <c r="A26" s="27">
         <v>10</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="27"/>
@@ -2280,18 +2399,18 @@
       <c r="H26" s="27"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" ht="25.5">
+    <row r="27" spans="1:9" ht="38.25">
       <c r="A27" s="31">
         <v>11</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="27"/>
@@ -2304,13 +2423,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="27"/>
@@ -2321,10 +2440,10 @@
     <row r="29" spans="1:9">
       <c r="A29" s="20"/>
       <c r="B29" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -2333,94 +2452,94 @@
       <c r="H29" s="26"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="47.25" customHeight="1">
+    <row r="30" spans="1:9" ht="26.25" customHeight="1">
       <c r="A30" s="31">
         <v>13</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="27" customHeight="1">
+      <c r="I30" s="79"/>
+    </row>
+    <row r="31" spans="1:9" ht="37.5" customHeight="1">
       <c r="A31" s="31">
         <v>14</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>31</v>
+      <c r="B31" s="66" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="1:9" ht="25.5">
+      <c r="I31" s="80"/>
+    </row>
+    <row r="32" spans="1:9" ht="38.25">
       <c r="A32" s="31">
         <v>15</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="D32" s="28" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="75"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="80"/>
+    </row>
+    <row r="33" spans="1:9" ht="38.25">
       <c r="A33" s="31">
         <v>16</v>
       </c>
-      <c r="B33" s="66" t="s">
-        <v>79</v>
+      <c r="B33" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="76"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="81"/>
+    </row>
+    <row r="34" spans="1:9" ht="51">
       <c r="A34" s="31">
         <v>17</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="27"/>
@@ -2428,18 +2547,18 @@
       <c r="H34" s="27"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" ht="25.5">
+    <row r="35" spans="1:9" ht="38.25">
       <c r="A35" s="31">
         <v>18</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="27"/>
@@ -2447,18 +2566,18 @@
       <c r="H35" s="27"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="38.25">
       <c r="A36" s="31">
         <v>19</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="27"/>
@@ -2466,18 +2585,18 @@
       <c r="H36" s="27"/>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="38.25">
       <c r="A37" s="31">
         <v>20</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>33</v>
+      <c r="B37" s="98" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>149</v>
+      <c r="D37" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="27"/>
@@ -2485,18 +2604,18 @@
       <c r="H37" s="27"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="38.25">
       <c r="A38" s="31">
         <v>21</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="27"/>
@@ -2509,13 +2628,13 @@
         <v>22</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>149</v>
+        <v>104</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="27"/>
@@ -2523,19 +2642,12 @@
       <c r="H39" s="27"/>
       <c r="I39" s="36"/>
     </row>
-    <row r="40" spans="1:9" ht="25.5">
+    <row r="40" spans="1:9">
       <c r="A40" s="31">
         <v>23</v>
       </c>
-      <c r="B40" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>158</v>
-      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="29"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -2545,7 +2657,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="20"/>
       <c r="B41" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -2560,108 +2672,108 @@
         <v>24</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="D42" s="28" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
-      <c r="I42" s="77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="25.5">
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="1:9" ht="38.25">
       <c r="A43" s="31">
         <v>25</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>54</v>
+      <c r="B43" s="66" t="s">
+        <v>107</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="78"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="83"/>
+    </row>
+    <row r="44" spans="1:9" ht="38.25">
       <c r="A44" s="31">
         <v>26</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="78"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="83"/>
+    </row>
+    <row r="45" spans="1:9" ht="38.25">
       <c r="A45" s="31">
         <v>27</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
-      <c r="I45" s="78"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="83"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.25">
       <c r="A46" s="31">
         <v>28</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>156</v>
+        <v>113</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="79"/>
-    </row>
-    <row r="47" spans="1:9" ht="191.25">
+      <c r="I46" s="84"/>
+    </row>
+    <row r="47" spans="1:9" ht="38.25">
       <c r="A47" s="31">
         <v>29</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>157</v>
+        <v>114</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="27"/>
@@ -2669,18 +2781,18 @@
       <c r="H47" s="27"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" ht="165.75">
+    <row r="48" spans="1:9" ht="25.5">
       <c r="A48" s="31">
         <v>30</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="27"/>
@@ -2693,13 +2805,13 @@
         <v>31</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>156</v>
+        <v>116</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="27"/>
@@ -2707,19 +2819,13 @@
       <c r="H49" s="27"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" ht="25.5">
+    <row r="50" spans="1:9">
       <c r="A50" s="31">
         <v>32</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>158</v>
-      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="29"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
@@ -2729,7 +2835,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="20"/>
       <c r="B51" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -2739,37 +2845,37 @@
       <c r="H51" s="26"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="39">
+    <row r="52" spans="1:9" ht="25.5">
       <c r="A52" s="27">
         <v>33</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="D52" s="28" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="68" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="25.5">
+      <c r="I52" s="67"/>
+    </row>
+    <row r="53" spans="1:9" ht="127.5">
       <c r="A53" s="31">
         <v>34</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>166</v>
+      <c r="B53" s="66" t="s">
+        <v>122</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="27"/>
@@ -2782,13 +2888,13 @@
         <v>35</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="27"/>
@@ -2796,18 +2902,18 @@
       <c r="H54" s="27"/>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" ht="25.5">
+    <row r="55" spans="1:9" ht="38.25">
       <c r="A55" s="31">
         <v>36</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="27"/>
@@ -2815,18 +2921,18 @@
       <c r="H55" s="27"/>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="1:9" ht="38.25">
+    <row r="56" spans="1:9" ht="51">
       <c r="A56" s="27">
         <v>37</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="27"/>
@@ -2834,18 +2940,18 @@
       <c r="H56" s="27"/>
       <c r="I56" s="36"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="25.5">
       <c r="A57" s="31">
         <v>38</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>163</v>
+        <v>128</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="27"/>
@@ -2853,18 +2959,18 @@
       <c r="H57" s="27"/>
       <c r="I57" s="36"/>
     </row>
-    <row r="58" spans="1:9" ht="21" customHeight="1">
+    <row r="58" spans="1:9" ht="25.5" customHeight="1">
       <c r="A58" s="27">
         <v>39</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="27"/>
@@ -2876,15 +2982,9 @@
       <c r="A59" s="31">
         <v>40</v>
       </c>
-      <c r="B59" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="70" t="s">
-        <v>179</v>
-      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="40"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
@@ -2894,7 +2994,7 @@
     <row r="60" spans="1:9">
       <c r="A60" s="20"/>
       <c r="B60" s="25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -2904,37 +3004,37 @@
       <c r="H60" s="26"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="38.25">
+    <row r="61" spans="1:9" ht="25.5">
       <c r="A61" s="27">
         <v>41</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="27"/>
+        <v>133</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="D61" s="28" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
-      <c r="I61" s="69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="25.5">
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="1:9" ht="102">
       <c r="A62" s="31">
         <v>42</v>
       </c>
-      <c r="B62" s="27" t="s">
-        <v>167</v>
+      <c r="B62" s="66" t="s">
+        <v>136</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="27"/>
@@ -2947,13 +3047,13 @@
         <v>43</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>169</v>
+        <v>139</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="E63" s="29"/>
       <c r="F63" s="27"/>
@@ -2961,18 +3061,18 @@
       <c r="H63" s="27"/>
       <c r="I63" s="42"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="38.25">
       <c r="A64" s="31">
         <v>44</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="27"/>
@@ -2980,18 +3080,18 @@
       <c r="H64" s="27"/>
       <c r="I64" s="42"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="51">
       <c r="A65" s="27">
         <v>45</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="27"/>
@@ -2999,18 +3099,18 @@
       <c r="H65" s="27"/>
       <c r="I65" s="42"/>
     </row>
-    <row r="66" spans="1:9" ht="38.25">
+    <row r="66" spans="1:9" ht="25.5">
       <c r="A66" s="31">
         <v>46</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>180</v>
+        <v>139</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="27"/>
@@ -3018,18 +3118,18 @@
       <c r="H66" s="27"/>
       <c r="I66" s="42"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="25.5">
       <c r="A67" s="27">
         <v>47</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="70" t="s">
-        <v>179</v>
+        <v>139</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="E67" s="44"/>
       <c r="F67" s="45"/>
@@ -3037,69 +3137,69 @@
       <c r="H67" s="45"/>
       <c r="I67" s="44"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="20"/>
-      <c r="B68" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="1:9" ht="38.25">
-      <c r="A69" s="31">
+    <row r="68" spans="1:9" ht="51">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="44"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="20"/>
+      <c r="B69" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" ht="38.25">
+      <c r="A70" s="31">
         <v>48</v>
       </c>
-      <c r="B69" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="25.5">
-      <c r="A70" s="27">
-        <v>49</v>
-      </c>
       <c r="B70" s="27" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="E70" s="29"/>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
-      <c r="I70" s="42"/>
-    </row>
-    <row r="71" spans="1:9" ht="25.5">
-      <c r="A71" s="31">
-        <v>50</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>50</v>
+      <c r="I70" s="68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="76.5">
+      <c r="A71" s="27">
+        <v>49</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>154</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="27"/>
@@ -3107,18 +3207,18 @@
       <c r="H71" s="27"/>
       <c r="I71" s="42"/>
     </row>
-    <row r="72" spans="1:9" ht="38.25">
-      <c r="A72" s="27">
-        <v>51</v>
+    <row r="72" spans="1:9" ht="25.5">
+      <c r="A72" s="31">
+        <v>50</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>171</v>
+        <v>157</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="27"/>
@@ -3126,18 +3226,18 @@
       <c r="H72" s="27"/>
       <c r="I72" s="42"/>
     </row>
-    <row r="73" spans="1:9" ht="51">
-      <c r="A73" s="31">
-        <v>52</v>
+    <row r="73" spans="1:9" ht="38.25">
+      <c r="A73" s="27">
+        <v>51</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>181</v>
+        <v>159</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="27"/>
@@ -3145,18 +3245,18 @@
       <c r="H73" s="27"/>
       <c r="I73" s="42"/>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="27">
-        <v>53</v>
+    <row r="74" spans="1:9" ht="51">
+      <c r="A74" s="31">
+        <v>52</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="70" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>163</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="27"/>
@@ -3164,18 +3264,18 @@
       <c r="H74" s="27"/>
       <c r="I74" s="42"/>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="31">
-        <v>54</v>
+    <row r="75" spans="1:9" ht="25.5">
+      <c r="A75" s="27">
+        <v>53</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="27"/>
@@ -3183,63 +3283,67 @@
       <c r="H75" s="27"/>
       <c r="I75" s="42"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="20"/>
-      <c r="B76" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="20"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="27">
+    <row r="76" spans="1:9" ht="25.5">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="42"/>
+    </row>
+    <row r="77" spans="1:9" ht="51">
+      <c r="A77" s="31">
+        <v>54</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="29"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="42"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="20"/>
+      <c r="B78" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="1:9" ht="38.25">
+      <c r="A79" s="27">
         <v>55</v>
       </c>
-      <c r="B77" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="E77" s="44"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="44"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="27">
-        <v>56</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="E78" s="44"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="44"/>
-    </row>
-    <row r="79" spans="1:9" ht="25.5">
-      <c r="A79" s="27">
-        <v>57</v>
-      </c>
       <c r="B79" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="28" t="s">
-        <v>190</v>
+        <v>48</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="99" t="s">
+        <v>181</v>
       </c>
       <c r="E79" s="44"/>
       <c r="F79" s="45"/>
@@ -3247,16 +3351,18 @@
       <c r="H79" s="45"/>
       <c r="I79" s="44"/>
     </row>
-    <row r="80" spans="1:9" ht="25.5">
+    <row r="80" spans="1:9" ht="38.25">
       <c r="A80" s="27">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="28" t="s">
-        <v>184</v>
+        <v>49</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="99" t="s">
+        <v>182</v>
       </c>
       <c r="E80" s="44"/>
       <c r="F80" s="45"/>
@@ -3265,106 +3371,106 @@
       <c r="I80" s="44"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="20"/>
-      <c r="B81" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9" ht="25.5">
+      <c r="A81" s="27">
+        <v>57</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="44"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="44"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="27">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="42"/>
-    </row>
-    <row r="83" spans="1:9" ht="25.5">
-      <c r="A83" s="31">
-        <v>60</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E83" s="46"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="46"/>
+        <v>180</v>
+      </c>
+      <c r="D82" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="44"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="44"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="20"/>
+      <c r="B83" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" ht="25.5">
       <c r="A84" s="27">
+        <v>59</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="29"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="42"/>
+    </row>
+    <row r="85" spans="1:9" ht="38.25">
+      <c r="A85" s="31">
+        <v>60</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E85" s="46"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="46"/>
+    </row>
+    <row r="86" spans="1:9" ht="38.25">
+      <c r="A86" s="27">
         <v>61</v>
       </c>
-      <c r="B84" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D84" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="49"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="50"/>
-    </row>
-    <row r="85" spans="1:9" ht="25.5">
-      <c r="A85" s="31">
-        <v>62</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" s="51"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="50"/>
-    </row>
-    <row r="86" spans="1:9" ht="25.5">
-      <c r="A86" s="27">
-        <v>63</v>
-      </c>
       <c r="B86" s="27" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="49" t="s">
-        <v>188</v>
+        <v>193</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="E86" s="49"/>
       <c r="F86" s="48"/>
@@ -3372,20 +3478,20 @@
       <c r="H86" s="48"/>
       <c r="I86" s="50"/>
     </row>
-    <row r="87" spans="1:9" ht="38.25">
+    <row r="87" spans="1:9" ht="25.5">
       <c r="A87" s="31">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="49"/>
+        <v>202</v>
+      </c>
+      <c r="E87" s="51"/>
       <c r="F87" s="48"/>
       <c r="G87" s="48"/>
       <c r="H87" s="48"/>
@@ -3393,16 +3499,16 @@
     </row>
     <row r="88" spans="1:9" ht="38.25">
       <c r="A88" s="27">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E88" s="49"/>
       <c r="F88" s="48"/>
@@ -3410,18 +3516,18 @@
       <c r="H88" s="48"/>
       <c r="I88" s="50"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" ht="25.5">
       <c r="A89" s="31">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="E89" s="49"/>
       <c r="F89" s="48"/>
@@ -3429,39 +3535,57 @@
       <c r="H89" s="48"/>
       <c r="I89" s="50"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="25.5">
       <c r="A90" s="27">
+        <v>65</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="49"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="50"/>
+    </row>
+    <row r="91" spans="1:9" ht="25.5">
+      <c r="A91" s="31">
+        <v>66</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="49"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="50"/>
+    </row>
+    <row r="92" spans="1:9" ht="25.5">
+      <c r="A92" s="27">
         <v>67</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="42"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="31">
-        <v>68</v>
-      </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="46"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="27">
-        <v>69</v>
-      </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="28"/>
+      <c r="B92" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>205</v>
+      </c>
       <c r="E92" s="29"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
@@ -3470,25 +3594,25 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="31">
-        <v>70</v>
-      </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="46"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="27">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="29"/>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
@@ -3496,7 +3620,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="31">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -3509,7 +3633,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="27">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -3522,7 +3646,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="31">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -3535,7 +3659,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="27">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -3548,7 +3672,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="31">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -3561,20 +3685,20 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="27">
-        <v>77</v>
-      </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="53"/>
+        <v>75</v>
+      </c>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="31">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
@@ -3587,22 +3711,22 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="27">
-        <v>79</v>
-      </c>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="B102" s="43"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="53"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="31">
-        <v>80</v>
-      </c>
-      <c r="B103" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="B103" s="27"/>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
@@ -3613,9 +3737,9 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="27">
-        <v>81</v>
-      </c>
-      <c r="B104" s="54"/>
+        <v>79</v>
+      </c>
+      <c r="B104" s="27"/>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
@@ -3626,7 +3750,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="31">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B105" s="54"/>
       <c r="C105" s="27"/>
@@ -3637,49 +3761,53 @@
       <c r="H105" s="27"/>
       <c r="I105" s="42"/>
     </row>
-    <row r="106" spans="1:9" ht="18.75">
-      <c r="A106" s="39"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
-      <c r="G106" s="97"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="98"/>
+    <row r="106" spans="1:9">
+      <c r="A106" s="27">
+        <v>81</v>
+      </c>
+      <c r="B106" s="54"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="20"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="42"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="42"/>
+      <c r="A107" s="31">
+        <v>82</v>
+      </c>
+      <c r="B107" s="54"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="42"/>
+    </row>
+    <row r="108" spans="1:9" ht="18.75">
+      <c r="A108" s="39"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="75"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="42"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="42"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="20"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="42"/>
@@ -3693,19 +3821,19 @@
       <c r="I110" s="42"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="32"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="35"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="42"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="42"/>
-      <c r="B112" s="43"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
@@ -3715,7 +3843,7 @@
       <c r="I112" s="42"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="37"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="33"/>
       <c r="C113" s="32"/>
       <c r="D113" s="34"/>
@@ -3723,11 +3851,11 @@
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
       <c r="H113" s="32"/>
-      <c r="I113" s="38"/>
+      <c r="I113" s="35"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="42"/>
-      <c r="B114" s="27"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
@@ -3736,60 +3864,60 @@
       <c r="H114" s="27"/>
       <c r="I114" s="42"/>
     </row>
-    <row r="115" spans="1:9" ht="18">
-      <c r="A115" s="55"/>
-      <c r="B115" s="93"/>
-      <c r="C115" s="94"/>
-      <c r="D115" s="95"/>
-      <c r="E115" s="56"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="56"/>
+    <row r="115" spans="1:9">
+      <c r="A115" s="37"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="38"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="20"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="20"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="42"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="42"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="42"/>
+    </row>
+    <row r="117" spans="1:9" ht="18">
+      <c r="A117" s="55"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="71"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="56"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="42"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="42"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="20"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="42"/>
       <c r="B119" s="27"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="58"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="42"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="42"/>
@@ -3805,13 +3933,13 @@
     <row r="121" spans="1:9">
       <c r="A121" s="42"/>
       <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="42"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="58"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="42"/>
@@ -3825,15 +3953,15 @@
       <c r="I122" s="42"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="32"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="35"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="42"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="42"/>
@@ -3847,7 +3975,7 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="37"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="33"/>
       <c r="C125" s="32"/>
       <c r="D125" s="34"/>
@@ -3855,51 +3983,51 @@
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
       <c r="H125" s="32"/>
-      <c r="I125" s="38"/>
+      <c r="I125" s="35"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="51"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="58"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
-      <c r="I126" s="58"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="42"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="42"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="42"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="38"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="42"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="43"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="42"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="58"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="20"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="20"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="42"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="42"/>
@@ -3913,15 +4041,15 @@
       <c r="I130" s="42"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="42"/>
-      <c r="B131" s="43"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="42"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="20"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="42"/>
@@ -3937,168 +4065,182 @@
     <row r="133" spans="1:9">
       <c r="A133" s="42"/>
       <c r="B133" s="43"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="59"/>
-      <c r="I133" s="60"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="42"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="42"/>
       <c r="B134" s="43"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="61"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="61"/>
-      <c r="G134" s="61"/>
-      <c r="H134" s="61"/>
-      <c r="I134" s="62"/>
-    </row>
-    <row r="135" spans="1:9" ht="18">
-      <c r="A135" s="55"/>
-      <c r="B135" s="93"/>
-      <c r="C135" s="94"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="56"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="42"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="42"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="59"/>
+      <c r="I135" s="60"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="63"/>
-      <c r="B136" s="54"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="63"/>
-      <c r="B137" s="43"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="61"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="61"/>
+      <c r="H136" s="61"/>
+      <c r="I136" s="62"/>
+    </row>
+    <row r="137" spans="1:9" ht="18">
+      <c r="A137" s="55"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="56"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="63"/>
-      <c r="B138" s="64"/>
+      <c r="B138" s="54"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="63"/>
-      <c r="B139" s="64"/>
+      <c r="B139" s="43"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="63"/>
       <c r="B140" s="64"/>
     </row>
-    <row r="141" spans="1:9" ht="18">
-      <c r="A141" s="55"/>
-      <c r="B141" s="93"/>
-      <c r="C141" s="94"/>
-      <c r="D141" s="95"/>
-      <c r="E141" s="56"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="57"/>
-      <c r="I141" s="56"/>
+    <row r="141" spans="1:9">
+      <c r="A141" s="63"/>
+      <c r="B141" s="64"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="63"/>
-      <c r="B142" s="54"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="63"/>
-      <c r="B143" s="54"/>
-    </row>
-    <row r="144" spans="1:9" ht="18">
-      <c r="A144" s="55"/>
-      <c r="B144" s="93"/>
-      <c r="C144" s="94"/>
-      <c r="D144" s="95"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
-      <c r="I144" s="56"/>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="B142" s="64"/>
+    </row>
+    <row r="143" spans="1:9" ht="18">
+      <c r="A143" s="55"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="71"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="56"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="63"/>
+      <c r="B144" s="54"/>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="63"/>
       <c r="B145" s="54"/>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="63"/>
-      <c r="B146" s="54"/>
-    </row>
-    <row r="147" spans="1:2">
+    <row r="146" spans="1:9" ht="18">
+      <c r="A146" s="55"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="56"/>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="63"/>
       <c r="B147" s="54"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:9">
       <c r="A148" s="63"/>
       <c r="B148" s="54"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:9">
       <c r="A149" s="63"/>
       <c r="B149" s="54"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:9">
       <c r="A150" s="63"/>
       <c r="B150" s="54"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:9">
       <c r="A151" s="63"/>
       <c r="B151" s="54"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:9">
       <c r="A152" s="63"/>
       <c r="B152" s="54"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:9">
       <c r="A153" s="63"/>
-      <c r="B153" s="65"/>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="B153" s="54"/>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="63"/>
-      <c r="B154" s="65"/>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="B154" s="54"/>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="63"/>
       <c r="B155" s="65"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:9">
       <c r="A156" s="63"/>
       <c r="B156" s="65"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:9">
       <c r="A157" s="63"/>
-      <c r="B157" s="54"/>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="B157" s="65"/>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="63"/>
-      <c r="B158" s="54"/>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="B158" s="65"/>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="63"/>
       <c r="B159" s="54"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:9">
       <c r="A160" s="63"/>
       <c r="B160" s="54"/>
     </row>
-    <row r="161" spans="1:9" ht="18">
-      <c r="A161" s="55"/>
-      <c r="B161" s="93"/>
-      <c r="C161" s="94"/>
-      <c r="D161" s="95"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="57"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="57"/>
-      <c r="I161" s="56"/>
+    <row r="161" spans="1:9">
+      <c r="A161" s="63"/>
+      <c r="B161" s="54"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="63"/>
       <c r="B162" s="54"/>
     </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="63"/>
-      <c r="B163" s="54"/>
+    <row r="163" spans="1:9" ht="18">
+      <c r="A163" s="55"/>
+      <c r="B163" s="70"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="72"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="56"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="63"/>
@@ -4158,11 +4300,11 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="63"/>
-      <c r="B178" s="65"/>
+      <c r="B178" s="54"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="63"/>
-      <c r="B179" s="65"/>
+      <c r="B179" s="54"/>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="63"/>
@@ -4174,11 +4316,11 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="63"/>
-      <c r="B182" s="54"/>
+      <c r="B182" s="65"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="63"/>
-      <c r="B183" s="54"/>
+      <c r="B183" s="65"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="63"/>
@@ -4188,25 +4330,19 @@
       <c r="A185" s="63"/>
       <c r="B185" s="54"/>
     </row>
-    <row r="186" spans="1:9" ht="18">
-      <c r="A186" s="55"/>
-      <c r="B186" s="93"/>
-      <c r="C186" s="94"/>
-      <c r="D186" s="95"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="57"/>
-      <c r="H186" s="57"/>
-      <c r="I186" s="56"/>
+    <row r="186" spans="1:9">
+      <c r="A186" s="63"/>
+      <c r="B186" s="54"/>
     </row>
     <row r="187" spans="1:9">
+      <c r="A187" s="63"/>
       <c r="B187" s="54"/>
     </row>
     <row r="188" spans="1:9" ht="18">
       <c r="A188" s="55"/>
-      <c r="B188" s="93"/>
-      <c r="C188" s="94"/>
-      <c r="D188" s="95"/>
+      <c r="B188" s="70"/>
+      <c r="C188" s="71"/>
+      <c r="D188" s="72"/>
       <c r="E188" s="56"/>
       <c r="F188" s="57"/>
       <c r="G188" s="57"/>
@@ -4216,16 +4352,22 @@
     <row r="189" spans="1:9">
       <c r="B189" s="54"/>
     </row>
+    <row r="190" spans="1:9" ht="18">
+      <c r="A190" s="55"/>
+      <c r="B190" s="70"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="56"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="57"/>
+      <c r="I190" s="56"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="B191" s="54"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="I42:I46"/>
@@ -4235,14 +4377,22 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B143:D143"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="F188:H188 F113:H113 F100:H100 F115:H115 F119:H119 F111:H111 F123:H123 F125:H126 F135:H135 F141:H141 F144:H144 F161:H161 F186:H186 F52:H58 F61:H67 F82:H95 F77:H80 F30:H40 F17:H28 F42:H50 F69:H75" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
+    <dataValidation type="list" allowBlank="1" sqref="F190:H190 F115:H115 F102:H102 F117:H117 F121:H121 F113:H113 F125:H125 F127:H128 F137:H137 F143:H143 F146:H146 F163:H163 F188:H188 F52:H58 F61:H68 F84:H97 F79:H82 F30:H40 F17:H28 F42:H50 F70:H77" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14" xr:uid="{EE9D79CC-594A-4FE4-B396-6629865F8993}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H16 F129:H129 F51:H51 F116:H116 F107:H107 F29:H29 F41:H41 F59:H60 F68:H68 F81:H81 F76:H76" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F133:H133" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H16 F131:H131 F51:H51 F118:H118 F109:H109 F29:H29 F41:H41 F59:H60 F69:H69 F83:H83 F78:H78" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F135:H135" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Mid term/Test Case/Mid term Test Case Assignment 4 Nghiem Van Long.xlsx
+++ b/Mid term/Test Case/Mid term Test Case Assignment 4 Nghiem Van Long.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C1400-24CE-4D9D-ACBF-6E29BF09B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FEF942-2A7D-4043-95F0-33BB82A79CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{02CC2052-6F2B-4E0E-B93A-A1851046750D}"/>
   </bookViews>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="1" shapeId="0" xr:uid="{41D9BEAD-5CAF-43A8-A662-66A9E0EB01E0}">
+    <comment ref="F89" authorId="1" shapeId="0" xr:uid="{41D9BEAD-5CAF-43A8-A662-66A9E0EB01E0}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F89" authorId="1" shapeId="0" xr:uid="{6547ED97-9DF5-4940-B8CD-3CBF817E4C07}">
+    <comment ref="F90" authorId="1" shapeId="0" xr:uid="{6547ED97-9DF5-4940-B8CD-3CBF817E4C07}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F91" authorId="1" shapeId="0" xr:uid="{F89317D3-5144-496C-ABE6-61C28FCE403E}">
+    <comment ref="F92" authorId="1" shapeId="0" xr:uid="{F89317D3-5144-496C-ABE6-61C28FCE403E}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F104" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
+    <comment ref="F105" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G104" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
+    <comment ref="G105" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F132" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
+    <comment ref="F133" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F134" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
+    <comment ref="F135" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="207">
   <si>
     <t>User Story 2</t>
   </si>
@@ -338,12 +338,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Full Name</t>
   </si>
   <si>
     <t>Check when user inputs 2 characters</t>
@@ -524,11 +518,6 @@
 3. Click on Save button</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Input "Ngh" in the Full Name field
-2. Copy/Paste the inputted data
-</t>
-  </si>
-  <si>
     <t>1. Input "Ngh" in the Full Name field
 2. Click on X icon</t>
   </si>
@@ -559,9 +548,6 @@
     <t xml:space="preserve">2. Clear data in the Full Name field </t>
   </si>
   <si>
-    <t>2. Full name field will display "Ngh"</t>
-  </si>
-  <si>
     <t>Check when user inputs special characters</t>
   </si>
   <si>
@@ -615,16 +601,8 @@
     <t>3. Save fail and display Error message : "The Phone Number should contains Numeric characters" under Phone Number field</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Input "0123456789" in the Phone Number field
-2. Copy/Paste the inputted data
-</t>
-  </si>
-  <si>
     <t>1. Input "0123456789" in the Phone Number field
 2. Click on X icon</t>
-  </si>
-  <si>
-    <t>2. Phone Number field will display "0123456789"</t>
   </si>
   <si>
     <t xml:space="preserve">2. Clear data in the Phone Number field </t>
@@ -665,10 +643,6 @@
   </si>
   <si>
     <t>1. Input "Abc12" in the Address field
-2. Copy/Paste the inputted data</t>
-  </si>
-  <si>
-    <t>1. Input "Abc12" in the Address field
 2. Click on X icon</t>
   </si>
   <si>
@@ -679,9 +653,6 @@
   </si>
   <si>
     <t>3. Save fail and display Error message : "The address length should be 5 - 350 characters " under Addressr field</t>
-  </si>
-  <si>
-    <t>2.Address field will display "Abc12"</t>
   </si>
   <si>
     <t xml:space="preserve">2. Clear data in the Address field </t>
@@ -913,9 +884,6 @@
     <t>2. Office button is clickable</t>
   </si>
   <si>
-    <t>2. Home button is Selected</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check when user inputted valid data in all field but Full Name and Phone Number have existed  </t>
   </si>
   <si>
@@ -990,16 +958,56 @@
   </si>
   <si>
     <t>2. Back to Address Book page and inputted data will not be saved</t>
+  </si>
+  <si>
+    <t>UI Check List</t>
+  </si>
+  <si>
+    <t>2.Validation</t>
+  </si>
+  <si>
+    <t>2.1 Full Name</t>
+  </si>
+  <si>
+    <t>1. Copy text "Abc12"  from other places (web, .docx, txt..file)
+2. Click on Address field and paste the coppied text
+3. Copy text from Address field to paste in other places</t>
+  </si>
+  <si>
+    <t>1. Copy number "0123456789"  from other places (web, .docx, txt..file)
+2. Click on Phone Number field and paste the coppied text
+3. Copy text from Phone Number field to paste in other places</t>
+  </si>
+  <si>
+    <t>1. Copy text "Ngh"  from other places (web, .docx, txt..file)
+2. Click on Full Name field and paste the coppied text
+3. Copy text from Full Name field to paste in other places</t>
+  </si>
+  <si>
+    <t>2. Address field will display "Abc12"
+3. Data that you copied from Address field can be pasted to other places</t>
+  </si>
+  <si>
+    <t>2. Phone Number field will display "0123456789"
+3. Data that you copied from Phone Number field can be pasted to other places</t>
+  </si>
+  <si>
+    <t>2.  Full Name field will display "Ngh"
+3. Data that you copied from  Full Name field can be pasted to other places</t>
+  </si>
+  <si>
+    <t>2. Home button is Selected by default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,8 +1111,55 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,8 +1244,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1307,12 +1398,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" applyFont="0"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="11">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="18" borderId="11" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="19" fillId="15" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="20" fillId="19" borderId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="19" borderId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1495,6 +1682,78 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1513,85 +1772,217 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="27">
+    <cellStyle name="background" xfId="8" xr:uid="{EE81F734-5D0C-4C23-BB39-15639EB80B2C}"/>
+    <cellStyle name="background 2" xfId="9" xr:uid="{CF40FD66-6867-4AFD-8D9A-85DA8F6EB1E3}"/>
+    <cellStyle name="body_tyext" xfId="10" xr:uid="{EDD4C02A-33AE-4B58-A797-E373588C373F}"/>
+    <cellStyle name="cell" xfId="11" xr:uid="{5BAA95FD-1359-435E-AA6D-CB3EF9EC85B1}"/>
+    <cellStyle name="document title" xfId="12" xr:uid="{3107678D-B69B-419A-A4A1-E719241A4A3B}"/>
+    <cellStyle name="group" xfId="13" xr:uid="{5FE48B5F-0E2A-4D7D-AB09-C32ED145C506}"/>
+    <cellStyle name="Header" xfId="14" xr:uid="{1A435879-6F37-4FDC-A59A-61F9BADECA48}"/>
+    <cellStyle name="Heading" xfId="15" xr:uid="{363F2906-0E78-42CB-A8FA-181B99CBC8C8}"/>
+    <cellStyle name="Hyperlink 2" xfId="24" xr:uid="{08DCA4C2-FF21-416A-993A-30F4082F148E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7476E153-FE5E-4764-81A3-1C21B8A08878}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{CF232528-B1CB-4C6C-B870-CF1D5A1B3ADF}"/>
+    <cellStyle name="Normal 2 3" xfId="6" xr:uid="{4CDC6530-6849-494E-BD4C-AC31F3C94BC2}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{579F53F4-B3DF-4882-98B6-16E20C52676A}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{7F958D2E-51EB-47FE-B1AB-2F366EF535F6}"/>
+    <cellStyle name="Normal 6" xfId="16" xr:uid="{DAF830E3-AC0B-4611-A55C-879202BB95C2}"/>
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{15EA89C8-E697-4D10-BD1D-615ACBB210D0}"/>
+    <cellStyle name="page title" xfId="17" xr:uid="{047806B3-3D1D-4EDE-872F-FCE5434C46DD}"/>
+    <cellStyle name="Paragrap title" xfId="18" xr:uid="{0F5E2028-2783-417C-8F17-ADE9EE866644}"/>
+    <cellStyle name="Paragrap title 2" xfId="19" xr:uid="{18C4FFA8-FEFB-42C5-B7CB-981B2E006948}"/>
+    <cellStyle name="Percent 2" xfId="20" xr:uid="{E3815CFE-903F-4431-B22E-E5ED6FC3E8F3}"/>
+    <cellStyle name="Table header" xfId="21" xr:uid="{B27D75AB-EC13-47AF-A4FD-5D8958AC43C6}"/>
+    <cellStyle name="Table header 2" xfId="22" xr:uid="{CBE21B0C-3C18-4EB3-B2F0-2DDDE16F3923}"/>
+    <cellStyle name="Table header 2 2" xfId="25" xr:uid="{021AF437-8E1E-4D23-8BED-E4519AC8C2E5}"/>
+    <cellStyle name="Table header 3" xfId="26" xr:uid="{81D0FAF0-7C8E-4251-9249-D787425DD6E1}"/>
+    <cellStyle name="table_cell" xfId="3" xr:uid="{933E0FE8-B403-42E1-BEF2-76E34B18948B}"/>
+    <cellStyle name="標準_040802 債権ＤＢ" xfId="23" xr:uid="{465A7C41-AD18-4E42-92F5-24F58CBFB081}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="NashTech Table Style 1" pivot="0" count="2" xr9:uid="{625EFAD2-07A7-4B02-8EC7-E001A788E196}">
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+    </tableStyle>
+    <tableStyle name="NashTech Table Style 2" pivot="0" count="3" xr9:uid="{5B04C67B-17BD-40A9-9049-F73CDA1EBDDF}">
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+    </tableStyle>
+    <tableStyle name="NashTech Table Style 4" pivot="0" count="3" xr9:uid="{724B1FC5-B56D-4A65-8E68-5E7ABE312869}">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{4AF1DE43-3A73-4C8F-B582-FF42C6EB9BE1}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1900,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8483E831-5D5C-4FE4-892A-2F8425F39E30}">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1920,24 +2311,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1948,46 +2339,46 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="25.5">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2036,15 +2427,15 @@
         <v>9</v>
       </c>
       <c r="B8" s="10">
-        <f>COUNTIF($F$20:$F$49700,"*Passed")</f>
+        <f>COUNTIF($F$21:$F$49701,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <f>COUNTIF($G$20:$G$49700,"*Passed")</f>
+        <f>COUNTIF($G$21:$G$49701,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <f>COUNTIF($H$20:$H$49700,"*Passed")</f>
+        <f>COUNTIF($H$21:$H$49701,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
@@ -2058,15 +2449,15 @@
         <v>10</v>
       </c>
       <c r="B9" s="10">
-        <f>COUNTIF($F$20:$F$49420,"*Failed*")</f>
+        <f>COUNTIF($F$21:$F$49421,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C9" s="10">
-        <f>COUNTIF($G$20:$G$49420,"*Failed*")</f>
+        <f>COUNTIF($G$21:$G$49421,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <f>COUNTIF($H$20:$H$49420,"*Failed*")</f>
+        <f>COUNTIF($H$21:$H$49421,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
@@ -2075,20 +2466,20 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="25.5">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10">
-        <f>COUNTIF($F$20:$F$49420,"*Not Run*")</f>
+        <f>COUNTIF($F$21:$F$49421,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <f>COUNTIF($G$20:$G$49420,"*Not Run*")</f>
+        <f>COUNTIF($G$21:$G$49421,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D10" s="10">
-        <f>COUNTIF($H$20:$H$49420,"*Not Run*")</f>
+        <f>COUNTIF($H$21:$H$49421,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E10" s="11"/>
@@ -2102,15 +2493,15 @@
         <v>12</v>
       </c>
       <c r="B11" s="10">
-        <f>COUNTIF($F$20:$F$49420,"*NA*")</f>
+        <f>COUNTIF($F$21:$F$49421,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C11" s="10">
-        <f>COUNTIF($G$20:$G$49420,"*NA*")</f>
+        <f>COUNTIF($G$21:$G$49421,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f>COUNTIF($H$20:$H$49420,"*NA*")</f>
+        <f>COUNTIF($H$21:$H$49421,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
@@ -2119,20 +2510,20 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="38.25">
+    <row r="12" spans="1:9" ht="63.75">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <f>COUNTIF($F$20:$F$49420,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$21:$F$49421,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <f>COUNTIF($G$20:$G$49420,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$21:$G$49421,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="10">
-        <f>COUNTIF($H$20:$H$49420,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$21:$H$49421,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
@@ -2147,11 +2538,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="25.5">
@@ -2186,7 +2577,7 @@
     <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="20"/>
       <c r="B15" s="25" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -2196,85 +2587,79 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="20"/>
       <c r="B16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="25.5">
-      <c r="A17" s="27">
+        <v>198</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="20"/>
+      <c r="B17" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5">
+      <c r="A18" s="27">
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="76"/>
-    </row>
-    <row r="18" spans="1:9" ht="39" customHeight="1">
-      <c r="A18" s="31">
-        <v>2</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>56</v>
+      <c r="B18" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="C18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1">
-      <c r="A19" s="27">
-        <v>3</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>26</v>
+      <c r="A19" s="31">
+        <v>2</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="78"/>
-    </row>
-    <row r="20" spans="1:9" ht="38.25">
+      <c r="I19" s="73"/>
+    </row>
+    <row r="20" spans="1:9" ht="39" customHeight="1">
       <c r="A20" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>81</v>
@@ -2283,39 +2668,39 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="74"/>
     </row>
     <row r="21" spans="1:9" ht="38.25">
-      <c r="A21" s="31">
-        <v>5</v>
+      <c r="A21" s="27">
+        <v>4</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="38.25">
-      <c r="A22" s="27">
-        <v>6</v>
+      <c r="A22" s="31">
+        <v>5</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="27"/>
@@ -2323,18 +2708,18 @@
       <c r="H22" s="27"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="51">
+    <row r="23" spans="1:9" ht="38.25">
       <c r="A23" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="27"/>
@@ -2342,18 +2727,18 @@
       <c r="H23" s="27"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="38.25">
-      <c r="A24" s="31">
-        <v>8</v>
-      </c>
-      <c r="B24" s="98" t="s">
-        <v>82</v>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="27">
+        <v>7</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
@@ -2362,17 +2747,17 @@
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" ht="38.25">
-      <c r="A25" s="27">
-        <v>9</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>90</v>
+      <c r="A25" s="31">
+        <v>8</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>79</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="27"/>
@@ -2382,16 +2767,16 @@
     </row>
     <row r="26" spans="1:9" ht="38.25">
       <c r="A26" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="27"/>
@@ -2400,17 +2785,17 @@
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" ht="38.25">
-      <c r="A27" s="31">
-        <v>11</v>
+      <c r="A27" s="27">
+        <v>10</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="27"/>
@@ -2418,18 +2803,18 @@
       <c r="H27" s="27"/>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" ht="25.5">
-      <c r="A28" s="27">
-        <v>12</v>
+    <row r="28" spans="1:9" ht="76.5">
+      <c r="A28" s="31">
+        <v>11</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>205</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="27"/>
@@ -2437,128 +2822,128 @@
       <c r="H28" s="27"/>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="20"/>
-      <c r="B29" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A30" s="31">
+    <row r="29" spans="1:9" ht="25.5">
+      <c r="A29" s="27">
+        <v>12</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="20"/>
+      <c r="B30" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A31" s="31">
         <v>13</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="79"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A31" s="31">
-        <v>14</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>58</v>
+      <c r="B31" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="80"/>
-    </row>
-    <row r="32" spans="1:9" ht="38.25">
+      <c r="I31" s="75"/>
+    </row>
+    <row r="32" spans="1:9" ht="37.5" customHeight="1">
       <c r="A32" s="31">
-        <v>15</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="80"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:9" ht="38.25">
       <c r="A33" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="81"/>
-    </row>
-    <row r="34" spans="1:9" ht="51">
+      <c r="I33" s="76"/>
+    </row>
+    <row r="34" spans="1:9" ht="38.25">
       <c r="A34" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="1:9" ht="38.25">
+      <c r="I34" s="77"/>
+    </row>
+    <row r="35" spans="1:9" ht="51">
       <c r="A35" s="31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C35" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>97</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>102</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="27"/>
@@ -2568,16 +2953,16 @@
     </row>
     <row r="36" spans="1:9" ht="38.25">
       <c r="A36" s="31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="27"/>
@@ -2587,16 +2972,16 @@
     </row>
     <row r="37" spans="1:9" ht="38.25">
       <c r="A37" s="31">
-        <v>20</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C37" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>102</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="27"/>
@@ -2606,16 +2991,16 @@
     </row>
     <row r="38" spans="1:9" ht="38.25">
       <c r="A38" s="31">
-        <v>21</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>79</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="27"/>
@@ -2623,18 +3008,18 @@
       <c r="H38" s="27"/>
       <c r="I38" s="36"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5">
+    <row r="39" spans="1:9" ht="76.5">
       <c r="A39" s="31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>106</v>
+        <v>51</v>
+      </c>
+      <c r="C39" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>204</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="27"/>
@@ -2642,12 +3027,19 @@
       <c r="H39" s="27"/>
       <c r="I39" s="36"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="25.5">
       <c r="A40" s="31">
-        <v>23</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="E40" s="29"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -2655,144 +3047,137 @@
       <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="20"/>
-      <c r="B41" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" ht="25.5">
-      <c r="A42" s="31">
+      <c r="A41" s="31">
+        <v>23</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="36"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="20"/>
+      <c r="B42" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" ht="25.5">
+      <c r="A43" s="31">
         <v>24</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="82"/>
-    </row>
-    <row r="43" spans="1:9" ht="38.25">
-      <c r="A43" s="31">
-        <v>25</v>
-      </c>
-      <c r="B43" s="66" t="s">
-        <v>107</v>
+      <c r="B43" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="83"/>
+      <c r="I43" s="78"/>
     </row>
     <row r="44" spans="1:9" ht="38.25">
       <c r="A44" s="31">
-        <v>26</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>110</v>
+        <v>25</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>101</v>
       </c>
       <c r="C44" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="83"/>
+      <c r="I44" s="79"/>
     </row>
     <row r="45" spans="1:9" ht="38.25">
       <c r="A45" s="31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C45" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
-      <c r="I45" s="83"/>
+      <c r="I45" s="79"/>
     </row>
     <row r="46" spans="1:9" ht="38.25">
       <c r="A46" s="31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="84"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="1:9" ht="38.25">
       <c r="A47" s="31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="36"/>
-    </row>
-    <row r="48" spans="1:9" ht="25.5">
+      <c r="I47" s="80"/>
+    </row>
+    <row r="48" spans="1:9" ht="38.25">
       <c r="A48" s="31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="27"/>
@@ -2800,18 +3185,18 @@
       <c r="H48" s="27"/>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" ht="25.5">
+    <row r="49" spans="1:9" ht="63.75">
       <c r="A49" s="31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>121</v>
+        <v>50</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="100" t="s">
+        <v>203</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="27"/>
@@ -2819,13 +3204,19 @@
       <c r="H49" s="27"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="25.5">
       <c r="A50" s="31">
-        <v>32</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="E50" s="29"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
@@ -2833,68 +3224,62 @@
       <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="20"/>
-      <c r="B51" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" ht="25.5">
-      <c r="A52" s="27">
+      <c r="A51" s="31">
+        <v>32</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="36"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="20"/>
+      <c r="B52" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="67"/>
-    </row>
-    <row r="53" spans="1:9" ht="127.5">
-      <c r="A53" s="31">
-        <v>34</v>
-      </c>
-      <c r="B53" s="66" t="s">
-        <v>122</v>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" ht="25.5">
+      <c r="A53" s="27">
+        <v>33</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
-      <c r="I53" s="36"/>
-    </row>
-    <row r="54" spans="1:9" ht="25.5">
-      <c r="A54" s="27">
-        <v>35</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>125</v>
+      <c r="I53" s="67"/>
+    </row>
+    <row r="54" spans="1:9" ht="127.5">
+      <c r="A54" s="31">
+        <v>34</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>114</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="27"/>
@@ -2902,18 +3287,18 @@
       <c r="H54" s="27"/>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" ht="38.25">
-      <c r="A55" s="31">
-        <v>36</v>
+    <row r="55" spans="1:9" ht="25.5">
+      <c r="A55" s="27">
+        <v>35</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="27"/>
@@ -2921,18 +3306,18 @@
       <c r="H55" s="27"/>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="1:9" ht="51">
-      <c r="A56" s="27">
-        <v>37</v>
+    <row r="56" spans="1:9" ht="38.25">
+      <c r="A56" s="31">
+        <v>36</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="27"/>
@@ -2940,18 +3325,18 @@
       <c r="H56" s="27"/>
       <c r="I56" s="36"/>
     </row>
-    <row r="57" spans="1:9" ht="25.5">
-      <c r="A57" s="31">
-        <v>38</v>
+    <row r="57" spans="1:9" ht="51">
+      <c r="A57" s="27">
+        <v>37</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="27"/>
@@ -2959,18 +3344,18 @@
       <c r="H57" s="27"/>
       <c r="I57" s="36"/>
     </row>
-    <row r="58" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A58" s="27">
-        <v>39</v>
+    <row r="58" spans="1:9" ht="25.5">
+      <c r="A58" s="31">
+        <v>38</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="27"/>
@@ -2978,82 +3363,82 @@
       <c r="H58" s="27"/>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="31">
+    <row r="59" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A59" s="27">
+        <v>39</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="36"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="31">
         <v>40</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="40"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="20"/>
-      <c r="B60" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:9" ht="25.5">
-      <c r="A61" s="27">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="20"/>
+      <c r="B61" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" ht="25.5">
+      <c r="A62" s="27">
         <v>41</v>
       </c>
-      <c r="B61" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" spans="1:9" ht="102">
-      <c r="A62" s="31">
-        <v>42</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>136</v>
+      <c r="B62" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
-      <c r="I62" s="42"/>
-    </row>
-    <row r="63" spans="1:9" ht="25.5">
-      <c r="A63" s="27">
-        <v>43</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>138</v>
+      <c r="I62" s="68"/>
+    </row>
+    <row r="63" spans="1:9" ht="102">
+      <c r="A63" s="31">
+        <v>42</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>128</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E63" s="29"/>
       <c r="F63" s="27"/>
@@ -3061,18 +3446,18 @@
       <c r="H63" s="27"/>
       <c r="I63" s="42"/>
     </row>
-    <row r="64" spans="1:9" ht="38.25">
-      <c r="A64" s="31">
-        <v>44</v>
+    <row r="64" spans="1:9" ht="25.5">
+      <c r="A64" s="27">
+        <v>43</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="27"/>
@@ -3080,18 +3465,18 @@
       <c r="H64" s="27"/>
       <c r="I64" s="42"/>
     </row>
-    <row r="65" spans="1:9" ht="51">
-      <c r="A65" s="27">
-        <v>45</v>
+    <row r="65" spans="1:9" ht="38.25">
+      <c r="A65" s="31">
+        <v>44</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="27"/>
@@ -3099,18 +3484,18 @@
       <c r="H65" s="27"/>
       <c r="I65" s="42"/>
     </row>
-    <row r="66" spans="1:9" ht="25.5">
-      <c r="A66" s="31">
-        <v>46</v>
+    <row r="66" spans="1:9" ht="51">
+      <c r="A66" s="27">
+        <v>45</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="27"/>
@@ -3119,34 +3504,36 @@
       <c r="I66" s="42"/>
     </row>
     <row r="67" spans="1:9" ht="25.5">
-      <c r="A67" s="27">
+      <c r="A67" s="31">
+        <v>46</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="42"/>
+    </row>
+    <row r="68" spans="1:9" ht="25.5">
+      <c r="A68" s="27">
         <v>47</v>
       </c>
-      <c r="B67" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" s="44"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="44"/>
-    </row>
-    <row r="68" spans="1:9" ht="51">
-      <c r="A68" s="27"/>
       <c r="B68" s="27" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E68" s="44"/>
       <c r="F68" s="45"/>
@@ -3154,71 +3541,69 @@
       <c r="H68" s="45"/>
       <c r="I68" s="44"/>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="20"/>
-      <c r="B69" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="20"/>
-    </row>
-    <row r="70" spans="1:9" ht="38.25">
-      <c r="A70" s="31">
+    <row r="69" spans="1:9" ht="51">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="44"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="20"/>
+      <c r="B70" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="20"/>
+    </row>
+    <row r="71" spans="1:9" ht="38.25">
+      <c r="A71" s="31">
         <v>48</v>
       </c>
-      <c r="B70" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="76.5">
-      <c r="A71" s="27">
-        <v>49</v>
-      </c>
-      <c r="B71" s="66" t="s">
-        <v>154</v>
+      <c r="B71" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>165</v>
+        <v>144</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
-      <c r="I71" s="42"/>
-    </row>
-    <row r="72" spans="1:9" ht="25.5">
-      <c r="A72" s="31">
-        <v>50</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>156</v>
+      <c r="I71" s="68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="76.5">
+      <c r="A72" s="27">
+        <v>49</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="C72" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>157</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="27"/>
@@ -3226,18 +3611,18 @@
       <c r="H72" s="27"/>
       <c r="I72" s="42"/>
     </row>
-    <row r="73" spans="1:9" ht="38.25">
-      <c r="A73" s="27">
-        <v>51</v>
+    <row r="73" spans="1:9" ht="25.5">
+      <c r="A73" s="31">
+        <v>50</v>
       </c>
       <c r="B73" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>160</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="27"/>
@@ -3245,18 +3630,18 @@
       <c r="H73" s="27"/>
       <c r="I73" s="42"/>
     </row>
-    <row r="74" spans="1:9" ht="51">
-      <c r="A74" s="31">
-        <v>52</v>
+    <row r="74" spans="1:9" ht="38.25">
+      <c r="A74" s="27">
+        <v>51</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="27"/>
@@ -3264,18 +3649,18 @@
       <c r="H74" s="27"/>
       <c r="I74" s="42"/>
     </row>
-    <row r="75" spans="1:9" ht="25.5">
-      <c r="A75" s="27">
-        <v>53</v>
+    <row r="75" spans="1:9" ht="51">
+      <c r="A75" s="31">
+        <v>52</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="27"/>
@@ -3284,15 +3669,17 @@
       <c r="I75" s="42"/>
     </row>
     <row r="76" spans="1:9" ht="25.5">
-      <c r="A76" s="27"/>
+      <c r="A76" s="27">
+        <v>53</v>
+      </c>
       <c r="B76" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="27"/>
@@ -3300,18 +3687,16 @@
       <c r="H76" s="27"/>
       <c r="I76" s="42"/>
     </row>
-    <row r="77" spans="1:9" ht="51">
-      <c r="A77" s="31">
-        <v>54</v>
-      </c>
+    <row r="77" spans="1:9" ht="25.5">
+      <c r="A77" s="27"/>
       <c r="B77" s="27" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="27"/>
@@ -3319,50 +3704,50 @@
       <c r="H77" s="27"/>
       <c r="I77" s="42"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="20"/>
-      <c r="B78" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" ht="38.25">
-      <c r="A79" s="27">
-        <v>55</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" s="44"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="44"/>
+    <row r="78" spans="1:9" ht="51">
+      <c r="A78" s="31">
+        <v>54</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="29"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="42"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="20"/>
+      <c r="B79" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" ht="38.25">
       <c r="A80" s="27">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="99" t="s">
-        <v>182</v>
+        <v>169</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>173</v>
       </c>
       <c r="E80" s="44"/>
       <c r="F80" s="45"/>
@@ -3370,18 +3755,18 @@
       <c r="H80" s="45"/>
       <c r="I80" s="44"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="38.25">
       <c r="A81" s="27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D81" s="99" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>174</v>
       </c>
       <c r="E81" s="44"/>
       <c r="F81" s="45"/>
@@ -3391,16 +3776,16 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="27">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" s="99" t="s">
-        <v>182</v>
+        <v>171</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>206</v>
       </c>
       <c r="E82" s="44"/>
       <c r="F82" s="45"/>
@@ -3409,125 +3794,125 @@
       <c r="I82" s="44"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="20"/>
-      <c r="B83" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="20"/>
-    </row>
-    <row r="84" spans="1:9" ht="25.5">
-      <c r="A84" s="27">
+      <c r="A83" s="27">
+        <v>58</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="44"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="20"/>
+      <c r="B84" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" spans="1:9" ht="25.5">
+      <c r="A85" s="27">
         <v>59</v>
       </c>
-      <c r="B84" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="27" t="s">
+      <c r="B85" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="42"/>
-    </row>
-    <row r="85" spans="1:9" ht="38.25">
-      <c r="A85" s="31">
+      <c r="E85" s="29"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="42"/>
+    </row>
+    <row r="86" spans="1:9" ht="38.25">
+      <c r="A86" s="31">
         <v>60</v>
       </c>
-      <c r="B85" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="27" t="s">
+      <c r="B86" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D85" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="46"/>
-    </row>
-    <row r="86" spans="1:9" ht="38.25">
-      <c r="A86" s="27">
+      <c r="E86" s="46"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="46"/>
+    </row>
+    <row r="87" spans="1:9" ht="38.25">
+      <c r="A87" s="27">
         <v>61</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B87" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="D87" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D86" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" s="49"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="50"/>
-    </row>
-    <row r="87" spans="1:9" ht="25.5">
-      <c r="A87" s="31">
-        <v>62</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E87" s="51"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="48"/>
       <c r="G87" s="48"/>
       <c r="H87" s="48"/>
       <c r="I87" s="50"/>
     </row>
-    <row r="88" spans="1:9" ht="38.25">
-      <c r="A88" s="27">
-        <v>63</v>
+    <row r="88" spans="1:9" ht="25.5">
+      <c r="A88" s="31">
+        <v>62</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E88" s="49"/>
+        <v>193</v>
+      </c>
+      <c r="E88" s="51"/>
       <c r="F88" s="48"/>
       <c r="G88" s="48"/>
       <c r="H88" s="48"/>
       <c r="I88" s="50"/>
     </row>
-    <row r="89" spans="1:9" ht="25.5">
-      <c r="A89" s="31">
-        <v>64</v>
+    <row r="89" spans="1:9" ht="38.25">
+      <c r="A89" s="27">
+        <v>63</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E89" s="49"/>
       <c r="F89" s="48"/>
@@ -3536,17 +3921,17 @@
       <c r="I89" s="50"/>
     </row>
     <row r="90" spans="1:9" ht="25.5">
-      <c r="A90" s="27">
-        <v>65</v>
+      <c r="A90" s="31">
+        <v>64</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E90" s="49"/>
       <c r="F90" s="48"/>
@@ -3555,17 +3940,17 @@
       <c r="I90" s="50"/>
     </row>
     <row r="91" spans="1:9" ht="25.5">
-      <c r="A91" s="31">
-        <v>66</v>
+      <c r="A91" s="27">
+        <v>65</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E91" s="49"/>
       <c r="F91" s="48"/>
@@ -3574,66 +3959,72 @@
       <c r="I91" s="50"/>
     </row>
     <row r="92" spans="1:9" ht="25.5">
-      <c r="A92" s="27">
+      <c r="A92" s="31">
+        <v>66</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" s="49"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="50"/>
+    </row>
+    <row r="93" spans="1:9" ht="25.5">
+      <c r="A93" s="27">
         <v>67</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B93" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="42"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="31">
+      <c r="D93" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="29"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="42"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="31">
         <v>68</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="46"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="27">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="46"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="27">
         <v>69</v>
-      </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="42"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="31">
-        <v>70</v>
       </c>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="42"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="27">
-        <v>71</v>
+      <c r="A96" s="31">
+        <v>70</v>
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -3645,8 +4036,8 @@
       <c r="I96" s="42"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="31">
-        <v>72</v>
+      <c r="A97" s="27">
+        <v>71</v>
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -3658,8 +4049,8 @@
       <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="27">
-        <v>73</v>
+      <c r="A98" s="31">
+        <v>72</v>
       </c>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -3671,8 +4062,8 @@
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="31">
-        <v>74</v>
+      <c r="A99" s="27">
+        <v>73</v>
       </c>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -3684,8 +4075,8 @@
       <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="27">
-        <v>75</v>
+      <c r="A100" s="31">
+        <v>74</v>
       </c>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -3697,8 +4088,8 @@
       <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="31">
-        <v>76</v>
+      <c r="A101" s="27">
+        <v>75</v>
       </c>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
@@ -3710,34 +4101,34 @@
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="27">
+      <c r="A102" s="31">
+        <v>76</v>
+      </c>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="42"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="27">
         <v>77</v>
       </c>
-      <c r="B102" s="43"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="53"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="31">
+      <c r="B103" s="43"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="53"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="31">
         <v>78</v>
-      </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="42"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="27">
-        <v>79</v>
       </c>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
@@ -3749,10 +4140,10 @@
       <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="31">
-        <v>80</v>
-      </c>
-      <c r="B105" s="54"/>
+      <c r="A105" s="27">
+        <v>79</v>
+      </c>
+      <c r="B105" s="27"/>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
@@ -3762,8 +4153,8 @@
       <c r="I105" s="42"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="27">
-        <v>81</v>
+      <c r="A106" s="31">
+        <v>80</v>
       </c>
       <c r="B106" s="54"/>
       <c r="C106" s="27"/>
@@ -3775,8 +4166,8 @@
       <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="31">
-        <v>82</v>
+      <c r="A107" s="27">
+        <v>81</v>
       </c>
       <c r="B107" s="54"/>
       <c r="C107" s="27"/>
@@ -3787,38 +4178,40 @@
       <c r="H107" s="27"/>
       <c r="I107" s="42"/>
     </row>
-    <row r="108" spans="1:9" ht="18.75">
-      <c r="A108" s="39"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="75"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="20"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="20"/>
+    <row r="108" spans="1:9">
+      <c r="A108" s="31">
+        <v>82</v>
+      </c>
+      <c r="B108" s="54"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="42"/>
+    </row>
+    <row r="109" spans="1:9" ht="18.75">
+      <c r="A109" s="39"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="98"/>
+      <c r="H109" s="98"/>
+      <c r="I109" s="99"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="42"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="42"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="20"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="42"/>
@@ -3843,81 +4236,81 @@
       <c r="I112" s="42"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="32"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="35"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="42"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="42"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="35"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="37"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="38"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="42"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="42"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="42"/>
-    </row>
-    <row r="117" spans="1:9" ht="18">
-      <c r="A117" s="55"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="71"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="56"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="20"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="20"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="38"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="42"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="42"/>
+    </row>
+    <row r="118" spans="1:9" ht="18">
+      <c r="A118" s="55"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="56"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="42"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="42"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="20"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="42"/>
@@ -3933,24 +4326,24 @@
     <row r="121" spans="1:9">
       <c r="A121" s="42"/>
       <c r="B121" s="27"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="52"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="58"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="42"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="42"/>
       <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="42"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="58"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="42"/>
@@ -3975,59 +4368,59 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="32"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="35"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="42"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="42"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="42"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="35"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="37"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="38"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="42"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="51"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="58"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="38"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="42"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="43"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="42"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="58"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="42"/>
@@ -4041,26 +4434,26 @@
       <c r="I130" s="42"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="20"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="20"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="42"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="42"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="42"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="20"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="42"/>
@@ -4087,47 +4480,54 @@
     <row r="135" spans="1:9">
       <c r="A135" s="42"/>
       <c r="B135" s="43"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="59"/>
-      <c r="I135" s="60"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="42"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="42"/>
       <c r="B136" s="43"/>
-      <c r="C136" s="61"/>
-      <c r="D136" s="61"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="62"/>
-    </row>
-    <row r="137" spans="1:9" ht="18">
-      <c r="A137" s="55"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="71"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57"/>
-      <c r="I137" s="56"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="63"/>
-      <c r="B138" s="54"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="59"/>
+      <c r="I136" s="60"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="42"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="61"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="61"/>
+      <c r="I137" s="62"/>
+    </row>
+    <row r="138" spans="1:9" ht="18">
+      <c r="A138" s="55"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="95"/>
+      <c r="D138" s="96"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="56"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="63"/>
-      <c r="B139" s="43"/>
+      <c r="B139" s="54"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="63"/>
-      <c r="B140" s="64"/>
+      <c r="B140" s="43"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="63"/>
@@ -4137,39 +4537,39 @@
       <c r="A142" s="63"/>
       <c r="B142" s="64"/>
     </row>
-    <row r="143" spans="1:9" ht="18">
-      <c r="A143" s="55"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="72"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="57"/>
-      <c r="I143" s="56"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="63"/>
-      <c r="B144" s="54"/>
+    <row r="143" spans="1:9">
+      <c r="A143" s="63"/>
+      <c r="B143" s="64"/>
+    </row>
+    <row r="144" spans="1:9" ht="18">
+      <c r="A144" s="55"/>
+      <c r="B144" s="94"/>
+      <c r="C144" s="95"/>
+      <c r="D144" s="96"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="56"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="63"/>
       <c r="B145" s="54"/>
     </row>
-    <row r="146" spans="1:9" ht="18">
-      <c r="A146" s="55"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="71"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="56"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="63"/>
-      <c r="B147" s="54"/>
+    <row r="146" spans="1:9">
+      <c r="A146" s="63"/>
+      <c r="B146" s="54"/>
+    </row>
+    <row r="147" spans="1:9" ht="18">
+      <c r="A147" s="55"/>
+      <c r="B147" s="94"/>
+      <c r="C147" s="95"/>
+      <c r="D147" s="96"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="56"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="63"/>
@@ -4201,7 +4601,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="63"/>
-      <c r="B155" s="65"/>
+      <c r="B155" s="54"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="63"/>
@@ -4217,7 +4617,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="63"/>
-      <c r="B159" s="54"/>
+      <c r="B159" s="65"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="63"/>
@@ -4231,20 +4631,20 @@
       <c r="A162" s="63"/>
       <c r="B162" s="54"/>
     </row>
-    <row r="163" spans="1:9" ht="18">
-      <c r="A163" s="55"/>
-      <c r="B163" s="70"/>
-      <c r="C163" s="71"/>
-      <c r="D163" s="72"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="57"/>
-      <c r="H163" s="57"/>
-      <c r="I163" s="56"/>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="63"/>
-      <c r="B164" s="54"/>
+    <row r="163" spans="1:9">
+      <c r="A163" s="63"/>
+      <c r="B163" s="54"/>
+    </row>
+    <row r="164" spans="1:9" ht="18">
+      <c r="A164" s="55"/>
+      <c r="B164" s="94"/>
+      <c r="C164" s="95"/>
+      <c r="D164" s="96"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="56"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="63"/>
@@ -4308,7 +4708,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="63"/>
-      <c r="B180" s="65"/>
+      <c r="B180" s="54"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="63"/>
@@ -4324,7 +4724,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="63"/>
-      <c r="B184" s="54"/>
+      <c r="B184" s="65"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="63"/>
@@ -4338,61 +4738,65 @@
       <c r="A187" s="63"/>
       <c r="B187" s="54"/>
     </row>
-    <row r="188" spans="1:9" ht="18">
-      <c r="A188" s="55"/>
-      <c r="B188" s="70"/>
-      <c r="C188" s="71"/>
-      <c r="D188" s="72"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="57"/>
-      <c r="H188" s="57"/>
-      <c r="I188" s="56"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="B189" s="54"/>
-    </row>
-    <row r="190" spans="1:9" ht="18">
-      <c r="A190" s="55"/>
-      <c r="B190" s="70"/>
-      <c r="C190" s="71"/>
-      <c r="D190" s="72"/>
-      <c r="E190" s="56"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="57"/>
-      <c r="H190" s="57"/>
-      <c r="I190" s="56"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="B191" s="54"/>
+    <row r="188" spans="1:9">
+      <c r="A188" s="63"/>
+      <c r="B188" s="54"/>
+    </row>
+    <row r="189" spans="1:9" ht="18">
+      <c r="A189" s="55"/>
+      <c r="B189" s="94"/>
+      <c r="C189" s="95"/>
+      <c r="D189" s="96"/>
+      <c r="E189" s="56"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="57"/>
+      <c r="I189" s="56"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="B190" s="54"/>
+    </row>
+    <row r="191" spans="1:9" ht="18">
+      <c r="A191" s="55"/>
+      <c r="B191" s="94"/>
+      <c r="C191" s="95"/>
+      <c r="D191" s="96"/>
+      <c r="E191" s="56"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="56"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="B192" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I43:I47"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B143:D143"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="F190:H190 F115:H115 F102:H102 F117:H117 F121:H121 F113:H113 F125:H125 F127:H128 F137:H137 F143:H143 F146:H146 F163:H163 F188:H188 F52:H58 F61:H68 F84:H97 F79:H82 F30:H40 F17:H28 F42:H50 F70:H77" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
-      <formula1>$A$11:$A$15</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="F191:H191 F71:H78 F43:H51 F18:H29 F31:H41 F80:H83 F85:H98 F62:H69 F53:H59 F189:H189 F164:H164 F147:H147 F144:H144 F138:H138 F128:H129 F126:H126 F114:H114 F122:H122 F118:H118 F103:H103 F116:H116" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
+      <formula1>$A$11:$A$16</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14" xr:uid="{EE9D79CC-594A-4FE4-B396-6629865F8993}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H16 F131:H131 F51:H51 F118:H118 F109:H109 F29:H29 F41:H41 F59:H60 F69:H69 F83:H83 F78:H78" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F135:H135" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H17 F132:H132 F52:H52 F119:H119 F110:H110 F30:H30 F42:H42 F60:H61 F70:H70 F84:H84 F79:H79" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F136:H136" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
